--- a/Risultati/Result-Algorithm.xlsx
+++ b/Risultati/Result-Algorithm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\lollo\Thesis\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06EE618-C203-4709-9BB3-A97AC0344E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72514138-01C9-46EA-9962-2F67741F8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="3408" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,13 +730,14 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1113,13 +1114,14 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">

--- a/Risultati/Result-Algorithm.xlsx
+++ b/Risultati/Result-Algorithm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\lollo\Thesis\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72514138-01C9-46EA-9962-2F67741F8111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A87B5B-CB18-4388-A38B-358F5A7AD05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="3408" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subset of colomun" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="13">
   <si>
     <t>Algorithm</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier with Pruning</t>
   </si>
 </sst>
 </file>
@@ -114,17 +117,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -171,46 +164,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -250,204 +203,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -730,17 +485,18 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -774,7 +530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -791,7 +547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -808,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -822,7 +578,7 @@
         <v>0.6915</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -836,7 +592,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -850,7 +606,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -864,7 +620,7 @@
         <v>0.94830000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -878,7 +634,7 @@
         <v>0.69989999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -892,7 +648,7 @@
         <v>0.67120000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -906,7 +662,7 @@
         <v>0.58189999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -920,7 +676,7 @@
         <v>0.68020000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -934,7 +690,7 @@
         <v>0.6915</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -948,7 +704,7 @@
         <v>0.99970000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -962,7 +718,7 @@
         <v>0.99970000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -976,7 +732,7 @@
         <v>0.94830000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -990,110 +746,57 @@
         <v>0.69989999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.70420000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.66439999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C5 C10:C17">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
-      <formula>"NO"</formula>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"TEST"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5 C10:C17">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
-      <formula>"YES"</formula>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"TEST"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5 B10:B13">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"TRAIN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5 B10:B13">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B5 B10:B13 B18:B20">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
-      <formula>"TRAIN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5 C10:C20">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="11" operator="equal">
       <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C9">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C9">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B9">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>"TRAIN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B9">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B9">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"TRAIN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C9">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B17">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"TRAIN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B17">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:B17">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"TRAIN"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1114,17 +817,18 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1141,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1175,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1192,7 +896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +910,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1220,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1248,7 +952,7 @@
         <v>0.997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +966,7 @@
         <v>0.76939999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1276,7 +980,7 @@
         <v>0.76049999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1290,7 +994,7 @@
         <v>0.67679999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1304,7 +1008,7 @@
         <v>0.76949999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1318,7 +1022,7 @@
         <v>0.748</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1346,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1064,7 @@
         <v>0.99970000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1374,60 +1078,75 @@
         <v>0.77539999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.73450000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.7742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.73450000000000004</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C17">
-    <cfRule type="cellIs" dxfId="35" priority="9" operator="equal">
-      <formula>"NO"</formula>
+  <conditionalFormatting sqref="B2:B17">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="equal">
+      <formula>"TEST"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C17">
-    <cfRule type="cellIs" dxfId="34" priority="8" operator="equal">
-      <formula>"YES"</formula>
+  <conditionalFormatting sqref="B2:B28">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"TEST"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"TRAIN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B17">
-    <cfRule type="cellIs" dxfId="32" priority="6" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
-      <formula>"TEST"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
-      <formula>"TRAIN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B20" xr:uid="{FAB8C150-FDDF-4880-B41F-8795170C10EC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B28" xr:uid="{FAB8C150-FDDF-4880-B41F-8795170C10EC}">
       <formula1>$L$1:$L$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20" xr:uid="{5457B755-AA28-4448-A5C0-1C140554E1D1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26" xr:uid="{5457B755-AA28-4448-A5C0-1C140554E1D1}">
       <formula1>$L$3:$L$4</formula1>
     </dataValidation>
   </dataValidations>

--- a/Risultati/Result-Algorithm.xlsx
+++ b/Risultati/Result-Algorithm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\lollo\Thesis\Risultati\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A87B5B-CB18-4388-A38B-358F5A7AD05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA516854-2ABF-4733-9378-D7DFC168F3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
